--- a/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B1</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>MA161</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -501,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C202</t>
         </is>
       </c>
     </row>
@@ -565,27 +569,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B1</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -597,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B1 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>EC161 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -629,17 +633,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>DS161</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -666,17 +670,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 (Tutorial)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161 (Tutorial)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -739,22 +743,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B1</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -771,27 +775,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>MA161</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161</t>
         </is>
       </c>
     </row>
@@ -835,27 +839,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B1</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>EC161</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -867,27 +871,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B1 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>EC161 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MA161 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -899,12 +903,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -914,12 +918,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -941,17 +945,2768 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161 (Tutorial)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Applicable Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PH151, DS151, CS101, CS151, HS157, HS102, HS103, DE101, HS156, HS152, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Introduction to DS and AI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Introduction to quantum Physics</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Introduction to quantum physics</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>28</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>28</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>28</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>28</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>28</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>28</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>28</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>28</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>28</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>28</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>28</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>28</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>28</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>28</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>28</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>28</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>28</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>28</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>28</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>28</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>28</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>28</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>28</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>28</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>28</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>28</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Day</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Day</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Time</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Courses</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Sections</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Consistency</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>PH151, DS151, CS101, CS151, HS157, HS102, HS103, DE101, HS156, HS152, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
@@ -13,6 +13,8 @@
     <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Semester_Rules" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Classroom_Utilization" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,22 +475,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>ELECTIVE_B1 [C405]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161 [C405]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>ELECTIVE_B1 [C405]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161 [C405]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,27 +507,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161 [C405]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS161 [C405]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA161 [C405]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 [C405]</t>
         </is>
       </c>
     </row>
@@ -569,12 +571,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA162 [C405]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,7 +586,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -601,27 +603,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>DS161 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MA161 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC161 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>EC161 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MA162 (Tutorial)</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
+          <t>ELECTIVE_B1 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -633,27 +635,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>EC161 [C405]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DS161 [C405]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA161 [C405]</t>
         </is>
       </c>
     </row>
@@ -670,17 +672,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA161 (Tutorial)</t>
+          <t>MA162 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS161 (Tutorial)</t>
+          <t>CS161 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DS161 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -743,27 +745,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>ELECTIVE_B1 [C405]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>EC161 [C405]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 [C405]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C405]</t>
         </is>
       </c>
     </row>
@@ -775,27 +777,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA162 [C405]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>MA162 [C405]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161 [C405]</t>
         </is>
       </c>
     </row>
@@ -839,27 +841,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS161 [C405]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161 [C405]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>DS161 [C405]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EC161</t>
         </is>
       </c>
     </row>
@@ -876,12 +878,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC161 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MA161 (Tutorial)</t>
+          <t>DS161 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -891,7 +893,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
+          <t>ELECTIVE_B1 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -908,17 +910,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161 [C405]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161 [C405]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -935,27 +937,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>MA161 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS161 (Tutorial)</t>
+          <t>EC161 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MA162 (Tutorial)</t>
+          <t>MA162 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DS161 (Tutorial)</t>
+          <t>CS161 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -3713,4 +3715,1334 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rule</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Exclusion</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Reason</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled Baskets</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Schedule all elective baskets</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No specific restrictions for this semester</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ Applied</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Recreation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>48</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>100</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Classroom_Utilization" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Classroom_Allocation" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,11 +437,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -467,14 +464,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C203]</t>
+          <t>ELECTIVE_B1 [C402]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -484,204 +481,204 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C203]</t>
+          <t>ELECTIVE_B1 [C402]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC161 [C205]</t>
+          <t>DS161 [C303]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC161 [C205]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA162 [C303]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC161 [C304]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>EC161 [C304]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MA162 [C303]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>MA161 [C402]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DS161 [C303]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MA161 [C402]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA161 [C402]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>DS161 [C104]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MA162 [C304]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA162 [C304]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L407]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>DS161 [C104]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L407]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -710,258 +707,2896 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 [C104]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 [C104]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DS161 [C202]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MA162 [C403]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EC161 [C205]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>EC161 [C205]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MA162 [C403]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DS161 [C202]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L407]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L407]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MA161 [C104]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MA161 [C104]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Weekly Hours (Timetable)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Daily Avg Hours (Timetable)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C102]</t>
+          <t>Recreation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC161 [C303]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 [C102]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC161 [C303]</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MA161 [C102]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MA162 [C402]</t>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DS161 [C104]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>DS161 [C104]</t>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA162 [C402]</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA161 [C102]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L408]</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>C103</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>library</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>15</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>6</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>15</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>6</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>15</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L408]</t>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
@@ -471,22 +471,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C402]</t>
+          <t>ELECTIVE_B1 [C204]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>MA161 [C404]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 [C204]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 [C402]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>DS161 [C303]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -503,27 +503,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA162 [C303]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C302]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC161 [C304]</t>
+          <t>MA162 [C205]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 [C205]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161 [C304]</t>
+          <t>DS161 [C302]</t>
         </is>
       </c>
     </row>
@@ -572,22 +572,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>EC161 (Lab) [L306]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L406]</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>EC161 [C102]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA162 [C303]</t>
         </is>
       </c>
     </row>
@@ -604,12 +604,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>EC161 (Lab) [L306]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L406]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,22 +631,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>MA161 [C404]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EC161 [C102]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MA161 [C402]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DS161 [C303]</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA161 [C402]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C104]</t>
+          <t>ELECTIVE_B1 [C304]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C104]</t>
+          <t>ELECTIVE_B1 [C304]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DS161 [C202]</t>
+          <t>EC161 [C101]</t>
         </is>
       </c>
     </row>
@@ -783,17 +783,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA162 [C403]</t>
+          <t>MA161 [C202]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC161 [C205]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161 [C205]</t>
+          <t>MA162 [C101]</t>
         </is>
       </c>
     </row>
@@ -837,27 +837,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MA162 [C403]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DS161 [C202]</t>
+          <t>MA162 [C101]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>EC161 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>EC161 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -901,19 +901,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>EC161 [C101]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DS161 [C004]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MA161 [C104]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MA161 [C104]</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
@@ -921,7 +921,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 [C202]</t>
         </is>
       </c>
     </row>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1201,16 +1201,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2119,16 +2119,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2153,16 +2153,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2187,16 +2187,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2356,17 +2356,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2461,22 +2461,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2516,22 +2516,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -2571,12 +2571,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2626,22 +2626,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2651,12 +2651,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2686,17 +2686,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2736,22 +2736,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2796,17 +2796,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2906,17 +2906,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3016,17 +3016,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3076,12 +3076,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3131,22 +3131,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3241,12 +3241,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3291,32 +3291,32 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3341,37 +3341,37 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3411,17 +3411,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3511,17 +3511,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3566,17 +3566,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3586,12 +3586,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">

--- a/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
@@ -471,17 +471,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C204]</t>
+          <t>ELECTIVE_B1 [C303]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA161 [C404]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C204]</t>
+          <t>ELECTIVE_B1 [C303]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 [C304]</t>
         </is>
       </c>
     </row>
@@ -508,22 +508,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS161 [C302]</t>
+          <t>EC161 [C302]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>MA162 [C205]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MA162 [C205]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>DS161 [C302]</t>
         </is>
       </c>
     </row>
@@ -567,14 +567,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>EC161 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L306]</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Free</t>
@@ -582,12 +582,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC161 [C102]</t>
+          <t>DS161 [C101]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C101]</t>
         </is>
       </c>
     </row>
@@ -599,12 +599,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>EC161 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L306]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,17 +631,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA161 [C404]</t>
+          <t>EC161 [C302]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC161 [C102]</t>
+          <t>MA162 [C205]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 [C304]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -741,27 +741,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C304]</t>
+          <t>ELECTIVE_B1 [C202]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>DS161 [C002]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 [C202]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 [C304]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>DS161 [C004]</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC161 [C101]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -778,22 +778,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>EC161 [C101]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MA161 [C402]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA161 [C202]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA162 [C101]</t>
+          <t>MA161 [C402]</t>
         </is>
       </c>
     </row>
@@ -842,22 +842,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA162 [C101]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L408]</t>
+          <t>EC161 [C101]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L408]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -901,27 +901,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC161 [C101]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>EC161 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DS161 [C002]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MA161 [C202]</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L408]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1201,16 +1201,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2119,16 +2119,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2356,17 +2356,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -2406,22 +2406,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -2461,17 +2461,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2521,17 +2521,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -2626,22 +2626,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2686,17 +2686,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2736,22 +2736,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2791,22 +2791,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2846,22 +2846,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3011,32 +3011,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3071,12 +3071,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3121,32 +3121,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3181,17 +3181,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3236,17 +3236,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3401,12 +3401,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -3451,32 +3451,32 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3516,12 +3516,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3566,27 +3566,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">

--- a/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
@@ -474,27 +474,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C003]</t>
+          <t>ELECTIVE_B1 [C304]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA162 [C403]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C003]</t>
+          <t>ELECTIVE_B1 [C304]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DS161 [C303]</t>
+          <t>DS161 [C304]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA162 [C403]</t>
+          <t>EC161 [C201]</t>
         </is>
       </c>
     </row>
@@ -506,17 +506,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 [C303]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 [C002]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 [C201]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DS161 [C303]</t>
+          <t>DS161 [C304]</t>
         </is>
       </c>
     </row>
@@ -570,12 +570,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L306]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA161 [C205]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,12 +585,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC161 [C202]</t>
+          <t>MA161 [C303]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L407]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L306]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L407]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA161 [C205]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161 [C202]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 [C002]</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C402]</t>
+          <t>ELECTIVE_B1 [C201]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1 [C402]</t>
+          <t>ELECTIVE_B1 [C201]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DS161 [C204]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -840,27 +840,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA161 [C205]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DS161 [C204]</t>
+          <t>MA161 [C205]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>EC161 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>MA162 [C101]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MA162 [C101]</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L406]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 [C101]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L306]</t>
+          <t>DS161 [C403]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C403]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L306]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
@@ -1116,29 +1116,29 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**MA162**</t>
+          <t>**EC161**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1158,34 +1158,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>L306, C201</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**EC161**</t>
+          <t>**MA162**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Chinmayananda</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C202, L407</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>⚠️ 3 issues</t>
+          <t>[WARN] 3 issues</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C201</t>
         </is>
       </c>
     </row>
@@ -1464,29 +1464,29 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>L306, C402</t>
+          <t>C402, L406</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**DS161**</t>
+          <t>**MA161**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -1565,22 +1565,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**MA161**</t>
+          <t>**DS161**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Introduction to DATA science and artificial intelligence</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1600,12 +1600,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C403</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>⚠️ 3 issues</t>
+          <t>[WARN] 3 issues</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1667,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1768,17 +1768,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1811,7 +1811,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1830,31 +1830,31 @@
         </is>
       </c>
       <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>ELECTIVE_B1, EC161</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1897,7 +1897,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1940,7 +1940,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161, ELECTIVE_B1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2026,7 +2026,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2053,23 +2053,23 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1, EC161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2147,49 +2147,6 @@
         </is>
       </c>
       <c r="I11" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
@@ -2304,22 +2261,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>✅ FULLY COMPLIANT</t>
+          <t>[OK] FULLY COMPLIANT</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -2361,22 +2318,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -2418,22 +2375,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -2475,22 +2432,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -2532,22 +2489,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>✅ FULLY COMPLIANT</t>
+          <t>[OK] FULLY COMPLIANT</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -2630,7 +2587,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-03 12:04</t>
+          <t>2025-12-12 16:58</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2714,12 +2671,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11/35</t>
+          <t>10/35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 31.4%</t>
+          <t>Utilization: 28.6%</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2715,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>⚠️ NEEDS REVIEW</t>
+          <t>[WARN] NEEDS REVIEW</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">

--- a/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Classroom_Utilization" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Classroom_Allocation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Basket_Course_Allocations" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,6 +440,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -464,9 +472,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -476,19 +484,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>MA161 [C004]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Free</t>
@@ -496,194 +504,194 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA161 [C002]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DS161 [C004]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC161 [C004]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DS161 [C002]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MA162 [C004]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [C002]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [C004]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MA162 [C002]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EC161 [C002]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -707,6 +715,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -734,9 +747,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -746,7 +759,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -761,199 +774,199 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>DS161 [C004]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC161 [C004]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DS161 [C002]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MA162 [C004]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [C002]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [C004]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MA162 [C002]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EC161 [C002]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1052,6 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>PH151, DS151, CS101, CS151, HS157, HS102, HS103, DE101, HS156, HS152, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161</t>
@@ -2486,4 +2498,5815 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
@@ -7,13 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Classroom_Utilization" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Classroom_Allocation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Basket_Course_Allocations" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Room_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="LTPSC_Compliance" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Executive_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Basket_Allocation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Courses" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Classroom_Allocation" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Section_A" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Classroom_Utilization" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Basket_Course_Allocations" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,22 +479,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,22 +511,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -538,86 +543,86 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C002]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C004]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -634,22 +639,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA162 [C002]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC161 [C002]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -666,32 +671,1919 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EC161 [C001]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MA161 [C001]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MA161 [C001]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DS161 [C001]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>EC161 [C001]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DS161 [C001]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>EC161 [C001]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -706,7 +2598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,256 +2609,329 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Faculty</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>LTPSC</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Lect/Tuts/Week</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Labs/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Combined Class</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Room</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>**ELECTIVE_B1**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>**MA161**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>**DS161**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Introduction to DATA science and artificial intelligence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>**MA162**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>Chinmayananda</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C002]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>**EC161**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C004]</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>L105, C001</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA162 [C002]</t>
+          <t>Total Courses: 5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC161 [C002]</t>
+          <t>Complete: 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Rate: 40.0%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Lectures: 10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>Labs: 2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[WARN] 3 issues</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>--</t>
         </is>
       </c>
     </row>
@@ -981,7 +2946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -992,87 +2957,128 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Tutorial Day</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Courses in Basket</t>
+          <t>Total Sessions</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Number of Courses</t>
+          <t>Sections</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Sections</t>
+          <t>Courses Assigned</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Branches</t>
+          <t>Sample Courses</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Semester</t>
+          <t>Utilization (Sessions/Day)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>PH151, DS151, CS101, CS151, HS157, HS102, HS103, DE101, HS156, HS152, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>28</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>MA161, EC161, MA162...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Semester 1</t>
+          <t>1.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -1082,6 +3088,711 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Introduction to DATA science and artificial intelligence</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2026-01-18 19:01</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 4, Elective: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/5 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Elective Baskets</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Baskets Scheduled</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28 courses in baskets</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2/36</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Utilization: 5.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>13.3%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A: 26.7%, B: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Score: 34.0/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Applicable Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PH151, DS151, CS101, CS151, HS157, HS102, HS103, DE101, HS156, HS152, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2500,13 +5211,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2517,1242 +5228,1017 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Room Number</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Capacity</t>
+          <t>Lecture Slots</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Weekly Hours (Timetable)</t>
+          <t>Tutorial Slot</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Daily Avg Hours (Timetable)</t>
+          <t>Total Courses in Basket</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Exam Sessions</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Utilization Rate (%)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
+          <t>Common for Both Sections</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>28</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>15</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>28</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>28</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>15</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
+        <v>28</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>28</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>28</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C103</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>library</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Computers, Books</t>
+        <v>28</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>28</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Equipment</t>
+        <v>28</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Computers</t>
+        <v>28</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Computers</t>
+        <v>28</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Examination room</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Tables, Chairs</t>
+        <v>28</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>28</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>28</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>28</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>28</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Equipment</t>
+        <v>28</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Computers</t>
+        <v>28</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Computers</t>
+        <v>28</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>28</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C301</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Physics Lab</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Physics Equipment</t>
+        <v>28</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>28</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>28</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>28</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>28</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C306</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
-        <v>0</v>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
+        <v>28</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C307</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RESEARCH LAB</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
+        <v>28</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C308</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RESEARCH LAB</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>L401</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>28</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -3761,13 +6247,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3863,7 +6349,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3876,11 +6362,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="b">
         <v>0</v>
       </c>
@@ -3892,7 +6374,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -3922,7 +6404,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3935,11 +6417,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="b">
         <v>0</v>
       </c>
@@ -3951,7 +6429,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -3981,7 +6459,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3994,11 +6472,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="b">
         <v>0</v>
       </c>
@@ -4010,7 +6484,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -4040,24 +6514,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="b">
         <v>0</v>
       </c>
@@ -4069,7 +6539,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -4099,24 +6569,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="b">
         <v>0</v>
       </c>
@@ -4128,7 +6594,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -4158,24 +6624,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="b">
         <v>0</v>
       </c>
@@ -4187,7 +6649,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -4217,7 +6679,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4230,11 +6692,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="b">
         <v>0</v>
       </c>
@@ -4246,7 +6704,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -4276,24 +6734,20 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="b">
         <v>0</v>
       </c>
@@ -4305,7 +6759,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -4335,22 +6789,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -4364,7 +6818,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -4394,22 +6848,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -4423,7 +6877,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -4453,7 +6907,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -4516,7 +6970,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4579,7 +7033,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4642,7 +7096,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4705,7 +7159,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4768,7 +7222,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4831,7 +7285,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4894,7 +7348,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -4957,7 +7411,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5020,7 +7474,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5083,7 +7537,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5146,7 +7600,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -5209,7 +7663,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -5272,7 +7726,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5335,7 +7789,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5398,7 +7852,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -5461,7 +7915,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5524,7 +7978,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -5587,7 +8041,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5650,7 +8104,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5713,7 +8167,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5776,7 +8230,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5829,7 +8283,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5839,22 +8293,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -5862,18 +8316,18 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -5888,32 +8342,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -5921,18 +8375,18 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161</t>
         </is>
       </c>
     </row>
@@ -5947,32 +8401,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -5980,18 +8434,18 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -6006,32 +8460,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -6039,13 +8493,13 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -6065,17 +8519,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -6094,11 +8548,11 @@
         </is>
       </c>
       <c r="I38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -6109,7 +8563,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6124,32 +8578,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -6157,18 +8611,18 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6183,32 +8637,32 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -6216,18 +8670,22 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS157</t>
         </is>
       </c>
     </row>
@@ -6242,17 +8700,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -6275,10 +8733,14 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>C004</t>
@@ -6286,7 +8748,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS156</t>
         </is>
       </c>
     </row>
@@ -6301,32 +8763,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -6334,18 +8796,22 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -6360,17 +8826,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -6393,10 +8859,14 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>C004</t>
@@ -6404,7 +8874,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>PH151</t>
         </is>
       </c>
     </row>
@@ -6419,17 +8889,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6467,7 +8937,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
     </row>
@@ -6482,17 +8952,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6530,7 +9000,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
     </row>
@@ -6545,17 +9015,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -6593,7 +9063,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS102</t>
         </is>
       </c>
     </row>
@@ -6608,17 +9078,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -6656,7 +9126,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS103</t>
         </is>
       </c>
     </row>
@@ -6671,17 +9141,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -6719,7 +9189,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DE101</t>
         </is>
       </c>
     </row>
@@ -6734,17 +9204,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -6782,7 +9252,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS151</t>
         </is>
       </c>
     </row>
@@ -6797,17 +9267,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -6845,7 +9315,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -6860,32 +9330,32 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -6896,19 +9366,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6923,32 +9389,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -6959,1350 +9425,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>1</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>1</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>1</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>1</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>1</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>1</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>1</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>1</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>1</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Allocated Rooms</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>C004</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
@@ -15,10 +15,10 @@
     <sheet name="Basket_Allocation" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Basket_Courses" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Classroom_Allocation" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Section_A" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Classroom_Utilization" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Basket_Course_Allocations" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Basket_Course_Allocations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Classroom_Allocation" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Section_A" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Classroom_Utilization" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -664,7 +664,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -770,6 +770,2937 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1003,7 +3934,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -1108,7 +4039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2361,229 +5292,6 @@
       <c r="H37" t="inlineStr">
         <is>
           <t>TV</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Allocated Rooms</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2884,7 +5592,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>L105, C001</t>
+          <t>C001, L105</t>
         </is>
       </c>
     </row>
@@ -3030,7 +5738,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA161, EC161, MA162...</t>
+          <t>MA161, DS161, EC161...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3295,7 +6003,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3517,7 +6225,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 19:01</t>
+          <t>2026-01-20 00:14</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3584,7 +6292,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28 courses in baskets</t>
+          <t>11 courses in baskets</t>
         </is>
       </c>
     </row>
@@ -3623,12 +6331,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13.3%</t>
+          <t>14.4%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A: 26.7%, B: 0.0%</t>
+          <t>A: 28.9%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -3650,7 +6358,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Score: 34.0/100</t>
+          <t>Score: 34.3/100</t>
         </is>
       </c>
     </row>
@@ -3748,12 +6456,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PH151, DS151, CS101, CS151, HS157, HS102, HS103, DE101, HS156, HS152, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161, PH151, DS151, CS101, HS157, HS102, HS103, DE101, HS156, CS161</t>
+          <t>PH151, DS151, CS101, CS151, HS157, HS102, HS103, DE101, HS156, HS152, CS161</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -5217,7 +7925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5280,11 +7988,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -5315,11 +8023,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -5350,11 +8058,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -5385,11 +8093,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -5420,11 +8128,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -5455,11 +8163,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -5490,11 +8198,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -5525,11 +8233,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -5560,11 +8268,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -5595,11 +8303,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -5620,7 +8328,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5630,11 +8338,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -5642,601 +8350,6 @@
         </is>
       </c>
       <c r="G12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>28</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>28</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>28</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>28</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>28</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>28</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>28</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>28</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>28</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>28</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>28</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>28</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>28</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>28</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>28</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>28</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>28</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6253,7 +8366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6264,3176 +8377,204 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Semester</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Branch</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Section</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Room Type</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Conflict</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Allocation Type</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Basket</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>course</t>
+          <t>Allocated Rooms</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>C001</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>DS161</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>MA162</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>EC161</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>EC161</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>1</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>1</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>1</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>1</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>1</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>1</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>1</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>1</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>1</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>DS161</t>
+          <t>C205</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
@@ -622,7 +622,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1385,7 +1385,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1449,7 +1449,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -4380,16 +4380,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -4652,16 +4652,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C001, L105</t>
+          <t>L206, C001</t>
         </is>
       </c>
     </row>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA161, DS161, EC161...</t>
+          <t>DS161, MA161, EC161...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5750,7 +5750,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-20 00:14</t>
+          <t>2026-01-23 00:22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [C202]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -671,17 +671,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [C202]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS161 [C001]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -946,12 +946,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS161 [C001]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2706,16 +2706,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -2770,16 +2770,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2804,16 +2804,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -3110,16 +3110,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3144,16 +3144,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3348,16 +3348,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -4165,17 +4165,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -4189,7 +4189,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -4381,17 +4381,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -4405,7 +4405,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -4453,17 +4453,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -4477,7 +4477,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -4525,17 +4525,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -4549,7 +4549,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -4741,17 +4741,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -4765,7 +4765,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4813,17 +4813,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -4837,7 +4837,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -4909,7 +4909,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -4981,7 +4981,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -5029,15 +5029,19 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
@@ -5053,7 +5057,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5109,11 +5113,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="b">
         <v>0</v>
       </c>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5177,12 +5177,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -5509,7 +5509,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5785,15 +5785,19 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
@@ -5809,7 +5813,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5865,11 +5869,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="b">
         <v>0</v>
       </c>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -5961,7 +5961,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6189,7 +6189,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6470,7 +6470,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6541,15 +6541,19 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
@@ -6565,7 +6569,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6621,11 +6625,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="b">
         <v>0</v>
       </c>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6689,12 +6689,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -6717,7 +6717,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6869,7 +6869,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -7249,7 +7249,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7302,10 +7302,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
@@ -7317,7 +7321,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7370,10 +7374,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
@@ -7385,7 +7393,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7433,15 +7441,19 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
@@ -7453,7 +7465,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7506,10 +7518,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
@@ -7521,7 +7537,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7574,10 +7590,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
@@ -7589,7 +7609,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7637,15 +7657,19 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
@@ -7657,7 +7681,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -7705,15 +7729,19 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
@@ -7725,7 +7753,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -7773,15 +7801,19 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
@@ -7793,7 +7825,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -7985,15 +8017,19 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
@@ -8005,7 +8041,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -8053,15 +8089,19 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
@@ -8073,7 +8113,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -8145,7 +8185,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -8217,7 +8257,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -8265,17 +8305,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -8293,7 +8333,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -8351,7 +8391,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -8369,7 +8409,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -8445,7 +8485,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -8521,7 +8561,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -8569,17 +8609,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -8597,7 +8637,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -8645,17 +8685,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -8673,7 +8713,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -8749,7 +8789,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -9025,17 +9065,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -9053,7 +9093,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -9111,7 +9151,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -9129,7 +9169,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9205,7 +9245,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -9281,7 +9321,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -9329,17 +9369,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -9357,7 +9397,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -9405,17 +9445,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J75" t="b">
@@ -9433,7 +9473,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -9509,7 +9549,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -9785,17 +9825,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -9813,7 +9853,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -9871,7 +9911,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -9889,7 +9929,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -9965,7 +10005,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -10041,7 +10081,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -10089,17 +10129,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -10117,7 +10157,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -10165,17 +10205,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -10193,7 +10233,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -10269,7 +10309,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -10563,7 +10603,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C004, C302</t>
         </is>
       </c>
     </row>
@@ -10580,7 +10620,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C002, C302</t>
+          <t>C001, C303</t>
         </is>
       </c>
     </row>
@@ -10597,7 +10637,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C101, C303</t>
+          <t>C002, C304</t>
         </is>
       </c>
     </row>
@@ -10614,7 +10654,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C102, C304</t>
+          <t>C101, C305</t>
         </is>
       </c>
     </row>
@@ -10631,7 +10671,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C104, C305</t>
+          <t>C003, C102</t>
         </is>
       </c>
     </row>
@@ -10648,7 +10688,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C003, C202</t>
+          <t>C104, L402</t>
         </is>
       </c>
     </row>
@@ -10665,7 +10705,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C203, L402</t>
+          <t>C202, L403</t>
         </is>
       </c>
     </row>
@@ -10682,7 +10722,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C204, L404</t>
+          <t>C203, L404</t>
         </is>
       </c>
     </row>
@@ -10699,7 +10739,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C205, L405</t>
+          <t>C204, L405</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10756,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>L403, L406</t>
+          <t>C205, L406</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable_baskets.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3008,16 +3008,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -3042,16 +3042,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -4021,17 +4021,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -4045,7 +4045,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -4093,17 +4093,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -4117,7 +4117,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -4237,17 +4237,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -4261,7 +4261,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -4309,17 +4309,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -4333,7 +4333,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -4909,7 +4909,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -4981,7 +4981,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -5029,17 +5029,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5105,15 +5105,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
@@ -5129,7 +5133,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5177,12 +5181,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -5205,7 +5209,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5281,7 +5285,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5339,7 +5343,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -5357,7 +5361,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5415,7 +5419,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -5433,7 +5437,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5491,7 +5495,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -5509,7 +5513,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5567,7 +5571,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -5585,7 +5589,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5661,7 +5665,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5737,7 +5741,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5785,17 +5789,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -5813,7 +5817,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5861,15 +5865,19 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
@@ -5885,7 +5893,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5933,12 +5941,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -5961,7 +5969,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -6037,7 +6045,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6095,7 +6103,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -6113,7 +6121,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6171,7 +6179,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -6189,7 +6197,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6247,7 +6255,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -6265,7 +6273,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6323,7 +6331,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -6341,7 +6349,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6417,7 +6425,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6493,7 +6501,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6541,17 +6549,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -6569,7 +6577,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6617,15 +6625,19 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
@@ -6641,7 +6653,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6689,12 +6701,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -6717,7 +6729,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6793,7 +6805,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6851,7 +6863,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -6869,7 +6881,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6927,7 +6939,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6945,7 +6957,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7003,7 +7015,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -7021,7 +7033,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7079,7 +7091,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -7097,7 +7109,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7173,7 +7185,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7249,7 +7261,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7297,17 +7309,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -7321,7 +7333,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7369,17 +7381,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -7393,7 +7405,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7513,17 +7525,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -7537,7 +7549,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7585,17 +7597,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -7609,7 +7621,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -8333,7 +8345,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -8391,7 +8403,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -8409,7 +8421,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -8467,7 +8479,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -8485,7 +8497,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -8543,7 +8555,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -8561,7 +8573,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -8609,17 +8621,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -8637,7 +8649,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -8690,7 +8702,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -8713,7 +8725,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -8766,7 +8778,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -8789,7 +8801,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -8842,12 +8854,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -8865,7 +8877,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -8918,7 +8930,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -8941,7 +8953,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -8994,7 +9006,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -9017,7 +9029,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -9093,7 +9105,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -9151,7 +9163,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -9169,7 +9181,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9227,7 +9239,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -9245,7 +9257,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -9303,7 +9315,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -9321,7 +9333,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -9369,17 +9381,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -9397,7 +9409,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -9450,7 +9462,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -9473,7 +9485,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -9526,7 +9538,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -9549,7 +9561,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -9602,12 +9614,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -9625,7 +9637,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -9678,7 +9690,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -9701,7 +9713,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -9754,7 +9766,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -9777,7 +9789,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -9853,7 +9865,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -9911,7 +9923,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -9929,7 +9941,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -9987,7 +9999,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -10005,7 +10017,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -10063,7 +10075,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -10081,7 +10093,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -10129,17 +10141,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -10157,7 +10169,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -10210,7 +10222,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -10233,7 +10245,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -10286,7 +10298,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -10309,7 +10321,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -10362,12 +10374,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -10385,7 +10397,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -10438,7 +10450,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -10461,7 +10473,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -10514,7 +10526,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -10537,7 +10549,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -10603,7 +10615,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C302</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -10620,7 +10632,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C303</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -10637,7 +10649,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C304</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -10654,7 +10666,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101, C305</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -10671,7 +10683,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C102</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -10688,7 +10700,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C104, L402</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -10705,7 +10717,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C202, L403</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -10722,7 +10734,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C203, L404</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -10739,7 +10751,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C204, L405</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -10756,7 +10768,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C205, L406</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
